--- a/BuildingDrainageConsultant/wwwroot/data/drainsData.xlsx
+++ b/BuildingDrainageConsultant/wwwroot/data/drainsData.xlsx
@@ -2451,7 +2451,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2951,776 +2951,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4024,8 +3254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C388" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E359" sqref="E359"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P100" sqref="P100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4042,7 +3272,7 @@
     <col min="10" max="10" width="13.5546875" style="6" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" style="6" customWidth="1"/>
     <col min="12" max="12" width="15.5546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.44140625" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
@@ -23324,237 +22554,6 @@
       <c r="Q396" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A282:A285">
-    <cfRule type="duplicateValues" dxfId="94" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A286:A289">
-    <cfRule type="duplicateValues" dxfId="93" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A290:A293">
-    <cfRule type="duplicateValues" dxfId="92" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A294">
-    <cfRule type="duplicateValues" dxfId="91" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A295">
-    <cfRule type="duplicateValues" dxfId="90" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A296">
-    <cfRule type="duplicateValues" dxfId="89" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A297">
-    <cfRule type="duplicateValues" dxfId="88" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A298">
-    <cfRule type="duplicateValues" dxfId="87" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A299">
-    <cfRule type="duplicateValues" dxfId="86" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A300">
-    <cfRule type="duplicateValues" dxfId="85" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A301">
-    <cfRule type="duplicateValues" dxfId="84" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A302">
-    <cfRule type="duplicateValues" dxfId="83" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A307 A303">
-    <cfRule type="duplicateValues" dxfId="82" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A304">
-    <cfRule type="duplicateValues" dxfId="81" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A305">
-    <cfRule type="duplicateValues" dxfId="80" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A306">
-    <cfRule type="duplicateValues" dxfId="79" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A308">
-    <cfRule type="duplicateValues" dxfId="78" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A310">
-    <cfRule type="duplicateValues" dxfId="77" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A309">
-    <cfRule type="duplicateValues" dxfId="76" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A311">
-    <cfRule type="duplicateValues" dxfId="75" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A312">
-    <cfRule type="duplicateValues" dxfId="74" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A313">
-    <cfRule type="duplicateValues" dxfId="73" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A314">
-    <cfRule type="duplicateValues" dxfId="72" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A315">
-    <cfRule type="duplicateValues" dxfId="71" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A316:A317">
-    <cfRule type="duplicateValues" dxfId="70" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A318:A319 A324:A325">
-    <cfRule type="duplicateValues" dxfId="69" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A320:A321">
-    <cfRule type="duplicateValues" dxfId="68" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A322:A323">
-    <cfRule type="duplicateValues" dxfId="67" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A326:A327">
-    <cfRule type="duplicateValues" dxfId="66" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A328:A329">
-    <cfRule type="duplicateValues" dxfId="65" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A330:A331">
-    <cfRule type="duplicateValues" dxfId="64" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A332:A333">
-    <cfRule type="duplicateValues" dxfId="63" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A334:A335">
-    <cfRule type="duplicateValues" dxfId="62" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A336">
-    <cfRule type="duplicateValues" dxfId="61" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A346">
-    <cfRule type="duplicateValues" dxfId="60" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A347">
-    <cfRule type="duplicateValues" dxfId="59" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A348">
-    <cfRule type="duplicateValues" dxfId="58" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A349">
-    <cfRule type="duplicateValues" dxfId="57" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A353:A356">
-    <cfRule type="duplicateValues" dxfId="56" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A350:A352">
-    <cfRule type="duplicateValues" dxfId="55" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A337">
-    <cfRule type="duplicateValues" dxfId="54" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A338">
-    <cfRule type="duplicateValues" dxfId="53" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A339">
-    <cfRule type="duplicateValues" dxfId="52" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A340">
-    <cfRule type="duplicateValues" dxfId="51" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A341">
-    <cfRule type="duplicateValues" dxfId="50" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A342">
-    <cfRule type="duplicateValues" dxfId="49" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A343">
-    <cfRule type="duplicateValues" dxfId="48" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A344">
-    <cfRule type="duplicateValues" dxfId="47" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A337:A344">
-    <cfRule type="duplicateValues" dxfId="46" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A337:A344">
-    <cfRule type="duplicateValues" dxfId="45" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:A210">
-    <cfRule type="duplicateValues" dxfId="44" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A212">
-    <cfRule type="duplicateValues" dxfId="43" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A211">
-    <cfRule type="duplicateValues" dxfId="42" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A317">
-    <cfRule type="duplicateValues" dxfId="41" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A319">
-    <cfRule type="duplicateValues" dxfId="40" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A321">
-    <cfRule type="duplicateValues" dxfId="39" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A323">
-    <cfRule type="duplicateValues" dxfId="38" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A325">
-    <cfRule type="duplicateValues" dxfId="37" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A327">
-    <cfRule type="duplicateValues" dxfId="36" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A329">
-    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A331">
-    <cfRule type="duplicateValues" dxfId="34" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A333">
-    <cfRule type="duplicateValues" dxfId="33" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A335">
-    <cfRule type="duplicateValues" dxfId="32" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A360">
-    <cfRule type="duplicateValues" dxfId="31" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A361">
-    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A362">
-    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A363:A378">
-    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A363:A378">
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A389:A392">
-    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A393:A396">
-    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A345">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A345">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A345">
-    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A357:A359">
-    <cfRule type="duplicateValues" dxfId="21" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A350:A359">
-    <cfRule type="duplicateValues" dxfId="20" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A346:A359 A294:A336">
-    <cfRule type="duplicateValues" dxfId="19" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A346:A359 A185:A207 A213:A336">
-    <cfRule type="duplicateValues" dxfId="18" priority="82"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
